--- a/data/trans_orig/P1801_2016_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1801_2016_2023-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>500198</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>468770</v>
+        <v>466281</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>536157</v>
+        <v>534708</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4434387365392944</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4155775454541688</v>
+        <v>0.4133710509329804</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4753180774547849</v>
+        <v>0.4740330661992322</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>669</v>
@@ -763,19 +763,19 @@
         <v>719800</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>683651</v>
+        <v>688174</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>754372</v>
+        <v>756940</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5714691701473248</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5427691987087462</v>
+        <v>0.5463602765598571</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5989169218038225</v>
+        <v>0.600955516147464</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1149</v>
@@ -784,19 +784,19 @@
         <v>1219998</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1169387</v>
+        <v>1172495</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1270450</v>
+        <v>1266730</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.510981435616513</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4897836139317837</v>
+        <v>0.4910853656464344</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5321126963807415</v>
+        <v>0.5305547714031276</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>627799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>591840</v>
+        <v>593289</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>659227</v>
+        <v>661716</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5565612634607056</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5246819225452151</v>
+        <v>0.5259669338007679</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5844224545458311</v>
+        <v>0.5866289490670197</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>519</v>
@@ -834,19 +834,19 @@
         <v>539761</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>505189</v>
+        <v>502621</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>575910</v>
+        <v>571387</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4285308298526752</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4010830781961774</v>
+        <v>0.399044483852536</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4572308012912538</v>
+        <v>0.4536397234401429</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1105</v>
@@ -855,19 +855,19 @@
         <v>1167560</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1117108</v>
+        <v>1120828</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1218171</v>
+        <v>1215063</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.489018564383487</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4678873036192584</v>
+        <v>0.4694452285968724</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5102163860682161</v>
+        <v>0.5089146343535654</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>426367</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>396738</v>
+        <v>398237</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>457639</v>
+        <v>457272</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4691407190906563</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4365393279103606</v>
+        <v>0.4381891913833607</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5035497476337104</v>
+        <v>0.5031466217106539</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>534</v>
@@ -980,19 +980,19 @@
         <v>575363</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>541373</v>
+        <v>541106</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>608814</v>
+        <v>606346</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5716613506053061</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.537890128525027</v>
+        <v>0.5376248719410209</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6048968152009082</v>
+        <v>0.6024449993598567</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>953</v>
@@ -1001,19 +1001,19 @@
         <v>1001730</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>954007</v>
+        <v>959775</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1043843</v>
+        <v>1046234</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5230145137685841</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4980981743312295</v>
+        <v>0.5011092454122051</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5450021902873373</v>
+        <v>0.5462508370644542</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>482458</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>451186</v>
+        <v>451553</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>512087</v>
+        <v>510588</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5308592809093438</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4964502523662893</v>
+        <v>0.4968533782893461</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5634606720896392</v>
+        <v>0.5618108086166392</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>417</v>
@@ -1051,19 +1051,19 @@
         <v>431112</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>397661</v>
+        <v>400129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>465102</v>
+        <v>465369</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.428338649394694</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3951031847990915</v>
+        <v>0.3975550006401434</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4621098714749727</v>
+        <v>0.4623751280589791</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>879</v>
@@ -1072,19 +1072,19 @@
         <v>913570</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>871457</v>
+        <v>869066</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>961293</v>
+        <v>955525</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.476985486231416</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4549978097126627</v>
+        <v>0.4537491629355457</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5019018256687705</v>
+        <v>0.4988907545877949</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>408070</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>380231</v>
+        <v>376426</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>436699</v>
+        <v>437606</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4953755665562271</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4615809591608037</v>
+        <v>0.456960817036288</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5301293926096066</v>
+        <v>0.5312310146932541</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>443</v>
@@ -1197,19 +1197,19 @@
         <v>476554</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>448727</v>
+        <v>448251</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>504684</v>
+        <v>504054</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6180506651044502</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5819625239182664</v>
+        <v>0.5813450297105861</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6545334961012668</v>
+        <v>0.6537162426487029</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>832</v>
@@ -1218,19 +1218,19 @@
         <v>884624</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>843010</v>
+        <v>839979</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>923217</v>
+        <v>924037</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5546862228116355</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5285932477663388</v>
+        <v>0.5266927710478589</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5788852724369326</v>
+        <v>0.5793994421930497</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>415689</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>387060</v>
+        <v>386153</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>443528</v>
+        <v>447333</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5046244334437729</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4698706073903934</v>
+        <v>0.4687689853067459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5384190408391963</v>
+        <v>0.5430391829637118</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>285</v>
@@ -1268,19 +1268,19 @@
         <v>294505</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266375</v>
+        <v>267005</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>322332</v>
+        <v>322808</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3819493348955498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3454665038987332</v>
+        <v>0.3462837573512972</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4180374760817336</v>
+        <v>0.418654970289414</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>683</v>
@@ -1289,19 +1289,19 @@
         <v>710194</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>671601</v>
+        <v>670781</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>751808</v>
+        <v>754839</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4453137771883645</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4211147275630674</v>
+        <v>0.4206005578069502</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4714067522336609</v>
+        <v>0.473307228952141</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>228263</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>203380</v>
+        <v>202875</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>249592</v>
+        <v>248845</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4504878331854111</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4013801319401551</v>
+        <v>0.4003849422084189</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4925827754038019</v>
+        <v>0.4911072472760559</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -1414,19 +1414,19 @@
         <v>242180</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>219071</v>
+        <v>221672</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>263548</v>
+        <v>266188</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4945496056824747</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.447358860367183</v>
+        <v>0.4526702972893044</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.538185097551712</v>
+        <v>0.5435756279508227</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>438</v>
@@ -1435,19 +1435,19 @@
         <v>470442</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>440867</v>
+        <v>435588</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>504264</v>
+        <v>500576</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4721427665655658</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4424611040849411</v>
+        <v>0.4371626197951141</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5060871716882388</v>
+        <v>0.5023856417365327</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>278438</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>257109</v>
+        <v>257856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>303321</v>
+        <v>303826</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5495121668145889</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5074172245961981</v>
+        <v>0.5088927527239441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5986198680598449</v>
+        <v>0.5996150577915812</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>232</v>
@@ -1485,19 +1485,19 @@
         <v>247518</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>226150</v>
+        <v>223510</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>270627</v>
+        <v>268026</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5054503943175253</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4618149024482881</v>
+        <v>0.4564243720491772</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.552641139632817</v>
+        <v>0.5473297027106957</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>488</v>
@@ -1506,19 +1506,19 @@
         <v>525956</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>492134</v>
+        <v>495822</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>555531</v>
+        <v>560810</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5278572334344342</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4939128283117611</v>
+        <v>0.4976143582634673</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5575388959150589</v>
+        <v>0.5628373802048858</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>1562897</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1502235</v>
+        <v>1506935</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1622232</v>
+        <v>1625310</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4641420300780726</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4461268221235901</v>
+        <v>0.4475227115984375</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4817631257874182</v>
+        <v>0.4826770478981937</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1869</v>
@@ -1631,19 +1631,19 @@
         <v>2013896</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1961877</v>
+        <v>1959392</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2080768</v>
+        <v>2079670</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5710277417101235</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5562780122405624</v>
+        <v>0.5555734170811628</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5899889291277463</v>
+        <v>0.589677462871866</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3372</v>
@@ -1652,19 +1652,19 @@
         <v>3576794</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3484055</v>
+        <v>3498165</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3664512</v>
+        <v>3659350</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5188214079829265</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5053695171441143</v>
+        <v>0.50741608485014</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.531545112900591</v>
+        <v>0.5307963461907576</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>1804385</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1745050</v>
+        <v>1741972</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1865047</v>
+        <v>1860347</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5358579699219274</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5182368742125818</v>
+        <v>0.5173229521018055</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5538731778764097</v>
+        <v>0.5524772884015625</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1453</v>
@@ -1702,19 +1702,19 @@
         <v>1512896</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1446024</v>
+        <v>1447122</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1564915</v>
+        <v>1567400</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4289722582898766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4100110708722537</v>
+        <v>0.4103225371281339</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4437219877594375</v>
+        <v>0.4444265829188372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3155</v>
@@ -1723,19 +1723,19 @@
         <v>3317281</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3229563</v>
+        <v>3234725</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3410020</v>
+        <v>3395910</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4811785920170735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.468454887099409</v>
+        <v>0.4692036538092422</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4946304828558858</v>
+        <v>0.4925839151498598</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>205662</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>180972</v>
+        <v>182010</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>228711</v>
+        <v>228803</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4123630738912991</v>
+        <v>0.4123630738912989</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3628596966715489</v>
+        <v>0.3649407592508538</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4585789466964134</v>
+        <v>0.4587634157308382</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>514</v>
@@ -2088,19 +2088,19 @@
         <v>338032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>315380</v>
+        <v>315148</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>362713</v>
+        <v>361293</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5436247465622543</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5071957769423207</v>
+        <v>0.5068233596756575</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.583317751359277</v>
+        <v>0.5810339827130878</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>731</v>
@@ -2109,19 +2109,19 @@
         <v>543693</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>512751</v>
+        <v>508967</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>578248</v>
+        <v>578427</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4852022214798166</v>
+        <v>0.4852022214798165</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4575888677977814</v>
+        <v>0.4542114210785733</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5160393244473561</v>
+        <v>0.5161990205848548</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>293077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>270028</v>
+        <v>269936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317767</v>
+        <v>316729</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.587636926108701</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5414210533035866</v>
+        <v>0.5412365842691618</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6371403033284512</v>
+        <v>0.6350592407491459</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>344</v>
@@ -2159,19 +2159,19 @@
         <v>283779</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>259098</v>
+        <v>260518</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>306431</v>
+        <v>306663</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4563752534377457</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4166822486407228</v>
+        <v>0.4189660172869123</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4928042230576793</v>
+        <v>0.4931766403243427</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>582</v>
@@ -2180,19 +2180,19 @@
         <v>576857</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>542302</v>
+        <v>542123</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>607799</v>
+        <v>611583</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5147977785201836</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4839606755526438</v>
+        <v>0.4838009794151451</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5424111322022187</v>
+        <v>0.5457885789214267</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>390400</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>356475</v>
+        <v>357389</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>424150</v>
+        <v>424102</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4070623868611211</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3716898231931337</v>
+        <v>0.3726431880369382</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4422534308579566</v>
+        <v>0.4422032672642719</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>891</v>
@@ -2305,19 +2305,19 @@
         <v>562650</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>532107</v>
+        <v>531128</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>588929</v>
+        <v>591568</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5059580066710444</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4784927839575485</v>
+        <v>0.4776125357013938</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5295895218459679</v>
+        <v>0.5319624893435216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1346</v>
@@ -2326,19 +2326,19 @@
         <v>953050</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>912022</v>
+        <v>905529</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>995583</v>
+        <v>994960</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.460162646448741</v>
+        <v>0.4601626464487409</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4403531542421248</v>
+        <v>0.4372179969799934</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4806989890010305</v>
+        <v>0.4803981080358873</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>568666</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>534916</v>
+        <v>534964</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>602591</v>
+        <v>601677</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.592937613138879</v>
+        <v>0.5929376131388788</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5577465691420433</v>
+        <v>0.5577967327357282</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6283101768068663</v>
+        <v>0.6273568119630617</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>712</v>
@@ -2376,19 +2376,19 @@
         <v>549398</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>523119</v>
+        <v>520480</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>579941</v>
+        <v>580920</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4940419933289556</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.470410478154032</v>
+        <v>0.4680375106564782</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5215072160424513</v>
+        <v>0.5223874642986057</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1166</v>
@@ -2397,19 +2397,19 @@
         <v>1118065</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1075532</v>
+        <v>1076155</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1159093</v>
+        <v>1165586</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5398373535512591</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5193010109989696</v>
+        <v>0.5196018919641128</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5596468457578752</v>
+        <v>0.5627820030200067</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>525697</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>490545</v>
+        <v>492145</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>561163</v>
+        <v>561935</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5028660424195017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4692414538708748</v>
+        <v>0.4707715873633963</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5367923495440133</v>
+        <v>0.537530632731006</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>916</v>
@@ -2522,19 +2522,19 @@
         <v>594712</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>567052</v>
+        <v>564449</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>623385</v>
+        <v>622047</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5676672774665257</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5412646048919366</v>
+        <v>0.5387807150531957</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5950364954730997</v>
+        <v>0.5937587398371946</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1495</v>
@@ -2543,19 +2543,19 @@
         <v>1120408</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1073519</v>
+        <v>1075589</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1163259</v>
+        <v>1167374</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5353013477203583</v>
+        <v>0.5353013477203582</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5128987724046778</v>
+        <v>0.5138876980256714</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5557742449710158</v>
+        <v>0.5577401802067302</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>519704</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>484238</v>
+        <v>483466</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>554856</v>
+        <v>553256</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4971339575804983</v>
+        <v>0.4971339575804984</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4632076504559867</v>
+        <v>0.4624693672689943</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5307585461291252</v>
+        <v>0.5292284126366036</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>600</v>
@@ -2593,19 +2593,19 @@
         <v>452930</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>424257</v>
+        <v>425595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>480590</v>
+        <v>483193</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4323327225334744</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4049635045269001</v>
+        <v>0.4062412601628052</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4587353951080634</v>
+        <v>0.4612192849468043</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1049</v>
@@ -2614,19 +2614,19 @@
         <v>972634</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>929783</v>
+        <v>925668</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1019523</v>
+        <v>1017453</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4646986522796419</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.444225755028984</v>
+        <v>0.4422598197932692</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4871012275953223</v>
+        <v>0.4861123019743281</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>554188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>516820</v>
+        <v>520757</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>589144</v>
+        <v>591126</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5685131105336302</v>
+        <v>0.5685131105336301</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5301797697575312</v>
+        <v>0.534217999196006</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6043727038887736</v>
+        <v>0.6064064895024512</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>857</v>
@@ -2739,19 +2739,19 @@
         <v>565294</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>539945</v>
+        <v>537374</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>592542</v>
+        <v>592690</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6225626893419591</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5946453788913597</v>
+        <v>0.5918147360263204</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6525718667799726</v>
+        <v>0.6527343483510332</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1442</v>
@@ -2760,19 +2760,19 @@
         <v>1119481</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1073273</v>
+        <v>1074987</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1168665</v>
+        <v>1164531</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5945792152320077</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.570037423002417</v>
+        <v>0.5709475270859005</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6207016889559672</v>
+        <v>0.6185062818233316</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>420614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>385658</v>
+        <v>383676</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>457982</v>
+        <v>454045</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4314868894663698</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3956272961112264</v>
+        <v>0.3935935104975488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4698202302424689</v>
+        <v>0.4657820008039941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>463</v>
@@ -2810,19 +2810,19 @@
         <v>342717</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>315469</v>
+        <v>315321</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>368066</v>
+        <v>370637</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3774373106580409</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3474281332200274</v>
+        <v>0.347265651648967</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4053546211086403</v>
+        <v>0.4081852639736796</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>824</v>
@@ -2831,19 +2831,19 @@
         <v>763331</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>714147</v>
+        <v>718281</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>809539</v>
+        <v>807825</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4054207847679923</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3792983110440332</v>
+        <v>0.3814937181766684</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.429962576997583</v>
+        <v>0.4290524729140994</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>1675946</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1608612</v>
+        <v>1610128</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1744741</v>
+        <v>1742147</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.481869384701113</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4625095029670575</v>
+        <v>0.4629454975161544</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5016496400677447</v>
+        <v>0.5009035614680724</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3178</v>
@@ -2956,19 +2956,19 @@
         <v>2060687</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2002638</v>
+        <v>2007812</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2117238</v>
+        <v>2121505</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5585256891189194</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5427923296892256</v>
+        <v>0.544194690464294</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5738533886222149</v>
+        <v>0.5750097304284612</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5014</v>
@@ -2977,19 +2977,19 @@
         <v>3736632</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3649345</v>
+        <v>3650889</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3820123</v>
+        <v>3816544</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5213285448274732</v>
+        <v>0.5213285448274734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5091503259123782</v>
+        <v>0.5093657308966834</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5329770660500218</v>
+        <v>0.5324777354873728</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>1802062</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1733267</v>
+        <v>1735861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1869396</v>
+        <v>1867880</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.518130615298887</v>
+        <v>0.5181306152988869</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4983503599322553</v>
+        <v>0.4990964385319274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5374904970329427</v>
+        <v>0.5370545024838452</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2119</v>
@@ -3027,19 +3027,19 @@
         <v>1628824</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1572273</v>
+        <v>1568006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1686873</v>
+        <v>1681699</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4414743108810807</v>
+        <v>0.4414743108810806</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4261466113777851</v>
+        <v>0.4249902695715388</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4572076703107745</v>
+        <v>0.4558053095357059</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3621</v>
@@ -3048,19 +3048,19 @@
         <v>3430887</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3347396</v>
+        <v>3350975</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3518174</v>
+        <v>3516630</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4786714551725266</v>
+        <v>0.4786714551725267</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4670229339499783</v>
+        <v>0.4675222645126273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4908496740876218</v>
+        <v>0.4906342691033167</v>
       </c>
     </row>
     <row r="18">
